--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_test.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_10_no_test.xlsx
@@ -85,19 +85,19 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Clicks on forum</t>
@@ -106,7 +106,7 @@
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
@@ -118,10 +118,10 @@
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -133,7 +133,10 @@
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -142,13 +145,10 @@
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 8 (%)</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -945,16 +945,16 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -974,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -997,28 +997,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1061,28 +1061,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1746,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,16 +1967,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1994,12 +1994,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2017,27 +2017,27 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2058,21 +2058,21 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2095,16 +2095,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -2113,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2127,19 +2127,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2159,31 +2159,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,80 +2223,80 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2346,12 +2346,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3205,22 +3205,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3237,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3255,12 +3255,12 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -3368,30 +3368,30 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -3406,21 +3406,21 @@
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -3496,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -3511,18 +3511,18 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3534,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3676,13 +3676,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3703,12 +3703,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4041,13 +4041,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4114,13 +4114,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4274,22 +4274,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,13 +4297,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4312,16 +4312,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4329,16 +4329,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4347,27 +4347,27 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,48 +4457,48 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -4516,15 +4516,15 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4533,51 +4533,51 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -4612,12 +4612,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4740,12 +4740,12 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
